--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzne\Desktop\DataBase-for-chemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99106418-C138-43DF-8798-1D197CFEE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6CC936-E283-4503-BFCB-BEE7C0B6EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>20ХН3А</t>
   </si>
@@ -370,12 +370,6 @@
   </si>
   <si>
     <t>4 11 9 8</t>
-  </si>
-  <si>
-    <t>жидкая</t>
-  </si>
-  <si>
-    <t>газообразная</t>
   </si>
 </sst>
 </file>
@@ -433,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -660,11 +654,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -732,36 +750,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +781,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
@@ -1109,30 +1130,30 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75.599999999999994" customHeight="1" thickBot="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1149,8 +1170,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="14" t="s">
         <v>55</v>
       </c>
@@ -1165,8 +1186,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
@@ -1181,8 +1202,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="14" t="s">
         <v>57</v>
       </c>
@@ -1197,8 +1218,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="14" t="s">
         <v>58</v>
       </c>
@@ -1213,8 +1234,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="14" t="s">
         <v>59</v>
       </c>
@@ -1229,8 +1250,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="14" t="s">
         <v>60</v>
       </c>
@@ -1245,8 +1266,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="34"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="14" t="s">
         <v>54</v>
       </c>
@@ -1261,8 +1282,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="34"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="14" t="s">
         <v>61</v>
       </c>
@@ -1277,12 +1298,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -1293,10 +1314,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.8" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1313,8 +1334,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.8" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
@@ -1329,8 +1350,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.8" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
@@ -1345,15 +1366,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1361,10 +1382,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="13">
@@ -1381,8 +1402,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6">
-      <c r="A19" s="34"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
@@ -1397,8 +1418,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6">
-      <c r="A20" s="34"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1414,8 +1435,8 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15.6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
@@ -1430,8 +1451,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6">
-      <c r="A22" s="34"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1446,8 +1467,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6">
-      <c r="A23" s="34"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1462,8 +1483,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6">
-      <c r="A24" s="34"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
@@ -1478,8 +1499,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
@@ -1494,8 +1515,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6">
-      <c r="A26" s="34"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
@@ -1510,15 +1531,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>100</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -1526,10 +1547,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1546,10 +1567,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="22" t="s">
-        <v>107</v>
-      </c>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
@@ -1564,17 +1583,15 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="29" t="s">
-        <v>108</v>
-      </c>
+      <c r="A30" s="33"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -1582,10 +1599,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1602,8 +1619,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.8">
-      <c r="A32" s="34"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
@@ -1618,12 +1635,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -1645,7 +1662,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A39">
     <sortCondition ref="A1:A39"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="B14:B17"/>
@@ -1655,6 +1672,7 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,16 +1690,16 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="14">
         <v>20</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1692,12 +1710,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="16" t="s">
         <v>78</v>
       </c>
@@ -1706,12 +1724,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="16" t="s">
         <v>76</v>
       </c>
@@ -1720,12 +1738,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="16" t="s">
         <v>77</v>
       </c>
@@ -1734,12 +1752,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>79</v>
       </c>
@@ -1748,12 +1766,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="16" t="s">
         <v>52</v>
       </c>
@@ -1762,12 +1780,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
         <v>66</v>
       </c>
@@ -1776,12 +1794,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16" t="s">
         <v>77</v>
       </c>
@@ -1790,12 +1808,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="16" t="s">
         <v>80</v>
       </c>
@@ -1804,12 +1822,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="16" t="s">
         <v>80</v>
       </c>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzne\Desktop\DataBase-for-chemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6CC936-E283-4503-BFCB-BEE7C0B6EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE489B-66C6-40CE-85C8-BC92C9944EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Главная таблица" sheetId="1" r:id="rId1"/>
+    <sheet name="Материалы" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
   <si>
     <t>20ХН3А</t>
   </si>
@@ -682,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -746,9 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
@@ -1130,30 +1126,30 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75.599999999999994" customHeight="1" thickBot="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1170,8 +1166,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="14" t="s">
         <v>55</v>
       </c>
@@ -1186,8 +1182,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
@@ -1202,8 +1198,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="14" t="s">
         <v>57</v>
       </c>
@@ -1218,8 +1214,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="14" t="s">
         <v>58</v>
       </c>
@@ -1234,8 +1230,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="14" t="s">
         <v>59</v>
       </c>
@@ -1250,8 +1246,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="14" t="s">
         <v>60</v>
       </c>
@@ -1266,8 +1262,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="32"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="14" t="s">
         <v>54</v>
       </c>
@@ -1282,8 +1278,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="32"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="14" t="s">
         <v>61</v>
       </c>
@@ -1298,12 +1294,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -1314,10 +1310,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.8" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1334,8 +1330,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.8" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
@@ -1350,8 +1346,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.8" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
@@ -1366,15 +1362,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1382,10 +1378,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="13">
@@ -1402,8 +1398,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6">
-      <c r="A19" s="32"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
@@ -1418,8 +1414,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6">
-      <c r="A20" s="32"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1435,8 +1431,8 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15.6">
-      <c r="A21" s="32"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
@@ -1451,8 +1447,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6">
-      <c r="A22" s="32"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1467,8 +1463,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6">
-      <c r="A23" s="32"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1483,8 +1479,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6">
-      <c r="A24" s="32"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
@@ -1499,8 +1495,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6">
-      <c r="A25" s="32"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
@@ -1515,8 +1511,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6">
-      <c r="A26" s="32"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
@@ -1531,15 +1527,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>100</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -1547,10 +1543,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1567,8 +1563,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
@@ -1583,15 +1579,15 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -1599,10 +1595,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1619,8 +1615,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.8">
-      <c r="A32" s="32"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
@@ -1635,12 +1631,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -1680,178 +1676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5143B4-D4A8-47BA-A8E5-026F4B2A353D}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="14">
-        <v>20</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="B1:B10"/>
-    <mergeCell ref="D1:D10"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B71C419-5A8E-4099-BC30-4DBB0119D961}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
